--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
     <t>flower/flower013.png</t>
   </si>
   <si>
-    <t>dog/dog005.png</t>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
   </si>
   <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>car/car012.png</t>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
   </si>
   <si>
     <t>car/car004.png</t>
   </si>
   <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
   </si>
   <si>
     <t>flower/flower028.png</t>
   </si>
   <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
   </si>
   <si>
     <t>dog/dog028.png</t>
   </si>
   <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
   </si>
   <si>
     <t>face/face044.png</t>
   </si>
   <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
     <t>dog/dog041.png</t>
   </si>
   <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
     <t>flower/flower036.png</t>
   </si>
   <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
   </si>
   <si>
     <t>flower/flower043.png</t>
   </si>
   <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
   </si>
   <si>
     <t>dog/dog045.png</t>
   </si>
   <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
   </si>
   <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
     <t>car/car040.png</t>
   </si>
   <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
     <t>dog/dog047.png</t>
   </si>
   <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
+    <t>car/car032.png</t>
   </si>
   <si>
     <t>flower/flower041.png</t>
   </si>
   <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
   </si>
   <si>
     <t>car/car063.png</t>
   </si>
   <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
     <t>face/face053.png</t>
   </si>
   <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
   </si>
   <si>
     <t>dog/dog053.png</t>
   </si>
   <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
     <t>dog/dog052.png</t>
   </si>
   <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
   </si>
   <si>
     <t>face/face056.png</t>
   </si>
   <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
     <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.623204620922337</v>
+        <v>1.468781602026287</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.285098331131457</v>
+        <v>1.57050921279046</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.53531347693362</v>
+        <v>1.527093433718568</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.683027373559188</v>
+        <v>1.464480776785326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.364130247265233</v>
+        <v>1.307016755772146</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.574208221274279</v>
+        <v>1.451087741505141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.599003558028492</v>
+        <v>1.223726190764218</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.299669675447813</v>
+        <v>1.422875596878869</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.278151760469415</v>
+        <v>1.339194599944574</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.527206151831053</v>
+        <v>1.633462231231626</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.669248928293555</v>
+        <v>1.431173812382041</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.094904301466751</v>
+        <v>1.433049940053789</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.521607241694042</v>
+        <v>1.592080184371127</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.41151100081499</v>
+        <v>1.418845383948837</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.534382632094337</v>
+        <v>1.618607829526084</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.412327664413214</v>
+        <v>1.387825773423509</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.388418211498674</v>
+        <v>1.460592234374204</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.087500828600438</v>
+        <v>1.534550608509796</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.437817948656022</v>
+        <v>1.55242538377865</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.50090827520621</v>
+        <v>1.362804438468769</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.367409982253091</v>
+        <v>1.528482802421116</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.347471904884294</v>
+        <v>1.606058633337561</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.666008311447994</v>
+        <v>1.401848574258011</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.52541163941107</v>
+        <v>1.577222175730994</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.524862561318472</v>
+        <v>1.420210970608558</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.391407158802894</v>
+        <v>1.474816783408499</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.375004290893546</v>
+        <v>1.58648088388127</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.302471243531439</v>
+        <v>1.436912030295483</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.669988968702356</v>
+        <v>1.423637482454657</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.188808334405776</v>
+        <v>1.319013046041241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.544464912008795</v>
+        <v>1.315977998728476</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.174989526965534</v>
+        <v>1.296435081829092</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.522637672639746</v>
+        <v>1.285988962372788</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.62536029152972</v>
+        <v>1.454573834056509</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.375087609495858</v>
+        <v>1.522330015153279</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.46546988015184</v>
+        <v>1.685647730609728</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.391473025565557</v>
+        <v>1.763332010933525</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.485849528300234</v>
+        <v>1.422084674003012</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.295110664880588</v>
+        <v>1.339367397781938</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.257188311326806</v>
+        <v>1.644803274743781</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.300511155638227</v>
+        <v>1.437400649575617</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.429607767087324</v>
+        <v>1.458823709991855</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.42227222908049</v>
+        <v>1.632830981293832</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.198884351441461</v>
+        <v>1.593133581037714</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.718207220320999</v>
+        <v>1.635548737060279</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.397453593672215</v>
+        <v>1.705242359911294</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.585512576491141</v>
+        <v>1.362411581903743</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.383094905203163</v>
+        <v>1.44430625995325</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.237443619716538</v>
+        <v>1.210317049801127</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.502041505976998</v>
+        <v>1.620197763412593</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.878126123717296</v>
+        <v>1.263720084018788</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.552992221695567</v>
+        <v>1.409637980679966</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.398371642241131</v>
+        <v>1.345124882740845</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.52987526659757</v>
+        <v>1.475506997133186</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.361174900102848</v>
+        <v>1.513624840051036</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.398645670586825</v>
+        <v>1.344446946920843</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.436538318449826</v>
+        <v>1.432341968116318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.365100541264288</v>
+        <v>1.746119139511978</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.454650560686556</v>
+        <v>1.350580926203369</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.422903962663175</v>
+        <v>1.369417248890607</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.333379534481958</v>
+        <v>1.42478173195716</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.452035821442093</v>
+        <v>1.719582860358802</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.635666792895779</v>
+        <v>1.404258603224442</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.228254456680328</v>
+        <v>1.506642119800916</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.507314909267806</v>
+        <v>1.510207598904038</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.592249990772072</v>
+        <v>1.313097751718183</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.4182511066643</v>
+        <v>1.473584292565954</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.574791917745579</v>
+        <v>1.655063554704011</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.779028390556664</v>
+        <v>1.955216353426781</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.104172437375521</v>
+        <v>1.453991029592015</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.583629951565366</v>
+        <v>1.385593716123391</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.61760472182121</v>
+        <v>1.75623771930468</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.277074356460485</v>
+        <v>1.413670984235294</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.561944092622877</v>
+        <v>1.454392231495953</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.206216532225255</v>
+        <v>1.533713699276705</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.636242648798853</v>
+        <v>1.788411875930595</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.392473160230259</v>
+        <v>1.403808454463737</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.673015628770967</v>
+        <v>1.573582412751529</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.398918203729594</v>
+        <v>1.44709665364401</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.136489748658888</v>
+        <v>1.751332034601592</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.453545606237231</v>
+        <v>1.375062835146327</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.638082946516055</v>
+        <v>1.367768172325037</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.18332562496995</v>
+        <v>1.521841441594556</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.152822594411212</v>
+        <v>1.281200626990948</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.380448736180625</v>
+        <v>1.429064368099274</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.436590022777956</v>
+        <v>1.435642750603416</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.603698260242606</v>
+        <v>1.540313693223722</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.204539275825518</v>
+        <v>1.358354868698628</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.681652366619456</v>
+        <v>1.545571866667948</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.411837759805616</v>
+        <v>1.513632965573876</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.396805612843066</v>
+        <v>1.594977217658621</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.084286595906212</v>
+        <v>1.492346694036979</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.390590216492992</v>
+        <v>1.601619775911247</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.48113005507764</v>
+        <v>1.858495203467573</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.253951694375247</v>
+        <v>1.640142334631461</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.172699742595941</v>
+        <v>1.285888850942863</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.314801777079321</v>
+        <v>1.531774353062875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.586662086574218</v>
+        <v>1.491534372047597</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.5651735463664</v>
+        <v>1.446832892599082</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.176517179528606</v>
+        <v>1.675856368191639</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.458173167473963</v>
+        <v>1.83306765811483</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.304440844285219</v>
+        <v>1.620414376018839</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.246387619243138</v>
+        <v>1.310240140259358</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.230912000306394</v>
+        <v>1.363727357560348</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.440204966036405</v>
+        <v>1.71345610296049</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.523777412061655</v>
+        <v>1.504416043654283</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.365113410776644</v>
+        <v>1.587388232828697</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.627219552685656</v>
+        <v>1.680335615782381</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.296823160545538</v>
+        <v>1.54469814733611</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.491812032753758</v>
+        <v>1.557232567625532</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.453332727497293</v>
+        <v>1.846013163708439</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.489588635925424</v>
+        <v>1.674693945918579</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.509976018034731</v>
+        <v>1.471880378561783</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.677186736461419</v>
+        <v>1.466309245129909</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.466026593036891</v>
+        <v>1.282007084606231</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.397716571322652</v>
+        <v>1.719182235919204</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.383976661579216</v>
+        <v>1.420361249504432</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.334289613137078</v>
+        <v>1.323380612957501</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.431379728121055</v>
+        <v>1.369753294538286</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.674917857637791</v>
+        <v>1.535992492061124</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.488489577722353</v>
+        <v>1.39414821174412</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.534425651679188</v>
+        <v>1.639662888055986</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.540896665144402</v>
+        <v>1.618807964256761</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.602847328013455</v>
+        <v>1.450827149727602</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.744479362366821</v>
+        <v>1.314394394192263</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.639997215756936</v>
+        <v>1.405831436437171</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.375446145427003</v>
+        <v>1.400806852881583</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.160889135813123</v>
+        <v>1.185694814485886</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.456582098479498</v>
+        <v>1.475468752552187</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.545526231144785</v>
+        <v>1.669746850934454</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.541850265734123</v>
+        <v>1.563399101553085</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.463369485765534</v>
+        <v>1.682294781348732</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.619572907660281</v>
+        <v>1.263154004291677</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.505147445163451</v>
+        <v>1.146166768454082</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.503360734476672</v>
+        <v>1.710727202528857</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.530063087638752</v>
+        <v>1.512611354561799</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.296711654874263</v>
+        <v>1.331119820630177</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.088823526331782</v>
+        <v>1.524373509859216</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.683261739868791</v>
+        <v>1.472794733798903</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.617295268069704</v>
+        <v>1.238406014957517</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.587655848028906</v>
+        <v>1.417805961418979</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.45551293321062</v>
+        <v>1.495471472957926</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.477607007716828</v>
+        <v>1.634531742678889</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.686149108380592</v>
+        <v>1.478774361201118</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.869282833827369</v>
+        <v>1.592714191471349</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.549584895909766</v>
+        <v>1.272069549846493</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.606231095851792</v>
+        <v>1.824336749608772</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.475511646150732</v>
+        <v>1.371026216824848</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.349595198008644</v>
+        <v>1.516699412372593</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.763427475857395</v>
+        <v>1.668305340664118</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.280609828308226</v>
+        <v>1.543614981630194</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.550009480288987</v>
+        <v>1.451193897293007</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.2283323076273</v>
+        <v>1.552841879054507</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.58160225734586</v>
+        <v>1.621794971966803</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.55429358864969</v>
+        <v>1.589434253185499</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.548865065284416</v>
+        <v>1.47677370810056</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.675892235305606</v>
+        <v>1.676548390728494</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.54514106247435</v>
+        <v>1.757700697097019</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.263745982244115</v>
+        <v>1.41094051759948</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.646587110798579</v>
+        <v>1.488201608955172</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.672860038423041</v>
+        <v>1.49678961851031</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.427217391138984</v>
+        <v>1.567576785007615</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.657126187937895</v>
+        <v>1.540913939520234</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.525752842097038</v>
+        <v>1.461919785235962</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.48337233702944</v>
+        <v>1.521311330106564</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.384206869440411</v>
+        <v>1.359341622514318</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.502538419489896</v>
+        <v>1.462146695962714</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.172690512228767</v>
+        <v>1.444707982263745</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.552829718961096</v>
+        <v>1.125404274790474</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.499053083420025</v>
+        <v>1.273361700961513</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.699488864693816</v>
+        <v>1.351650188899181</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.676306203178278</v>
+        <v>1.445718253205894</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.597285357265603</v>
+        <v>1.66292330093274</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.680045044818455</v>
+        <v>1.318878722348722</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.454374768601425</v>
+        <v>1.31779944649068</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.673220374895494</v>
+        <v>1.747542439439305</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.373154668806124</v>
+        <v>1.551321161584312</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.88099202146805</v>
+        <v>1.484076009462659</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.526175244996766</v>
+        <v>1.598724374746088</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.561037434284842</v>
+        <v>1.582775677786752</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.413752037407459</v>
+        <v>1.558775135460052</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.51622028842904</v>
+        <v>1.673741239012574</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.554354653268019</v>
+        <v>1.41713882743347</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.498167798718021</v>
+        <v>1.097832619557902</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.44311564525063</v>
+        <v>1.335554430594757</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.351424105375662</v>
+        <v>1.50398510830473</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.07874163585458</v>
+        <v>1.311861260184775</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.732543795809145</v>
+        <v>1.661883381339106</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.624957181598336</v>
+        <v>1.360359114269307</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.292976030801507</v>
+        <v>1.28095140452039</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.505349992976266</v>
+        <v>1.231765526457558</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.308168297458428</v>
+        <v>1.597004664317566</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.182738960856818</v>
+        <v>1.676933254195135</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.722736001194296</v>
+        <v>1.634383799982319</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.264756723442432</v>
+        <v>1.780980411515895</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.579251841021427</v>
+        <v>1.573453983528791</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.59380389546709</v>
+        <v>1.455609590676809</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.477678670598772</v>
+        <v>1.330862020120463</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.527650833707258</v>
+        <v>1.596879910702425</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.547369524216696</v>
+        <v>1.459544173612602</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.464846314218405</v>
+        <v>1.610921116329003</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.390627626212108</v>
+        <v>1.791382018748722</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.346889033571545</v>
+        <v>1.30893280183304</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.76816322650396</v>
+        <v>1.677069796113155</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.713653878244162</v>
+        <v>1.569853474185246</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.514037272638118</v>
+        <v>1.435661757956886</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.377533678053538</v>
+        <v>1.635246188629627</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.771327786226165</v>
+        <v>1.417403832491281</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.653307156221923</v>
+        <v>1.635259781730614</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.593720669035182</v>
+        <v>1.605202015130824</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.40340917194469</v>
+        <v>1.538019480113588</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.384839205483395</v>
+        <v>1.53858018711453</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.382125155352591</v>
+        <v>1.197855053666194</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.289876292612587</v>
+        <v>1.386542919251918</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.513780392850569</v>
+        <v>1.601804745227944</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.532940011773391</v>
+        <v>1.42647576384854</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.526338213791876</v>
+        <v>1.375759113457522</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.499545668616937</v>
+        <v>1.480091488061331</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.804915135526791</v>
+        <v>1.421867756804456</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.330287453716493</v>
+        <v>1.326590730701684</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.538731070957666</v>
+        <v>1.370228070128065</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.598297286737147</v>
+        <v>1.713729655903252</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.530992151029972</v>
+        <v>1.4143166686417</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.504952705876518</v>
+        <v>1.756817723221181</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.425180310168709</v>
+        <v>1.483454182606362</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.475840546228582</v>
+        <v>1.533637304782392</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.483189509350746</v>
+        <v>1.550616263416741</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.290235188616043</v>
+        <v>1.373113146615485</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.493797242034066</v>
+        <v>1.690984730940111</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.491179326478055</v>
+        <v>1.623397978915601</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.272127182100888</v>
+        <v>1.606998042061817</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.568954152366452</v>
+        <v>1.421783915746994</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.745100722964383</v>
+        <v>1.370420043822516</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.393210962371849</v>
+        <v>1.473257501498927</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.667904509669261</v>
+        <v>1.557791167122317</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.657023030477415</v>
+        <v>1.673827048757686</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.390025291977491</v>
+        <v>1.482355402166554</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.303505058676218</v>
+        <v>1.366976861794285</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.622276138197501</v>
+        <v>1.554954198445607</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.517987422333567</v>
+        <v>1.761495141595382</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.551508553090043</v>
+        <v>1.23366496551072</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.545576510562993</v>
+        <v>1.445116354211204</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.268893441909833</v>
+        <v>1.66090987990697</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.385512420863133</v>
+        <v>1.362685438513859</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.668675895078081</v>
+        <v>1.257482507739318</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.518463176330776</v>
+        <v>1.300715491283441</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.329031652886544</v>
+        <v>1.36871279038936</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.521549591088661</v>
+        <v>1.383435049313559</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.37656952162174</v>
+        <v>1.397763751910694</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.390554080048607</v>
+        <v>1.606361418740743</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.516529236369237</v>
+        <v>1.542144240960274</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.870919313224756</v>
+        <v>1.979072125716906</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.479583881221917</v>
+        <v>1.423418926431825</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.519737687651653</v>
+        <v>1.431685545332432</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.414434456369</v>
+        <v>1.783027688053221</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.579381367801573</v>
+        <v>1.676561385570905</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.468781602026287</v>
+        <v>1.325072364572249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.57050921279046</v>
+        <v>1.705743152533326</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.527093433718568</v>
+        <v>1.495565481285688</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.464480776785326</v>
+        <v>1.4366326711806</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.307016755772146</v>
+        <v>1.71853177981706</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.451087741505141</v>
+        <v>1.54260174208216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.223726190764218</v>
+        <v>1.279172039859696</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.422875596878869</v>
+        <v>1.544941130594185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.339194599944574</v>
+        <v>1.296275761033751</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.633462231231626</v>
+        <v>1.592597451844214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.431173812382041</v>
+        <v>1.527989941539665</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.433049940053789</v>
+        <v>1.457648311436049</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.592080184371127</v>
+        <v>1.42270186451743</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.418845383948837</v>
+        <v>1.288487958979174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.618607829526084</v>
+        <v>1.636169544820538</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.387825773423509</v>
+        <v>1.598735093130236</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.460592234374204</v>
+        <v>1.536858125968218</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.534550608509796</v>
+        <v>1.190346184857662</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.55242538377865</v>
+        <v>1.63587934813546</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.362804438468769</v>
+        <v>1.307617350538756</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.528482802421116</v>
+        <v>1.698890963009153</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.606058633337561</v>
+        <v>1.427206550269263</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.401848574258011</v>
+        <v>1.292333369184117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.577222175730994</v>
+        <v>1.424622286897877</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.420210970608558</v>
+        <v>1.504445714945678</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.474816783408499</v>
+        <v>1.431867121708954</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.58648088388127</v>
+        <v>1.713410915575569</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.436912030295483</v>
+        <v>1.33150575426572</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.423637482454657</v>
+        <v>1.496800320570937</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.319013046041241</v>
+        <v>1.759701914849736</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.315977998728476</v>
+        <v>1.549516431104016</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.296435081829092</v>
+        <v>1.454867227269159</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.285988962372788</v>
+        <v>1.601737932691464</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.454573834056509</v>
+        <v>1.572206058282867</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.522330015153279</v>
+        <v>1.445265576568383</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.685647730609728</v>
+        <v>1.359114202148683</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.763332010933525</v>
+        <v>1.659265042893933</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.422084674003012</v>
+        <v>1.373392151199409</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.339367397781938</v>
+        <v>1.396069033439891</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.644803274743781</v>
+        <v>1.406030212078901</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.437400649575617</v>
+        <v>1.514293537180926</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.458823709991855</v>
+        <v>1.717031755742519</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.632830981293832</v>
+        <v>1.575415598293188</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.593133581037714</v>
+        <v>1.60168831492813</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.635548737060279</v>
+        <v>1.534335609232744</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.705242359911294</v>
+        <v>1.519478728306389</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.362411581903743</v>
+        <v>1.548329092463632</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.44430625995325</v>
+        <v>1.373121086137557</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.210317049801127</v>
+        <v>1.433261852566246</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.620197763412593</v>
+        <v>1.327073194203003</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.263720084018788</v>
+        <v>1.375175228660423</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.409637980679966</v>
+        <v>1.343996791198346</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.345124882740845</v>
+        <v>1.679188369321945</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.475506997133186</v>
+        <v>1.412589701034444</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.513624840051036</v>
+        <v>1.544600999392546</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.344446946920843</v>
+        <v>1.549551175129057</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.432341968116318</v>
+        <v>1.268568585704116</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.746119139511978</v>
+        <v>1.57137925818943</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.350580926203369</v>
+        <v>1.626742657362655</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.369417248890607</v>
+        <v>1.428059246123742</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.42478173195716</v>
+        <v>1.557749026327328</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.719582860358802</v>
+        <v>1.738574824490011</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.404258603224442</v>
+        <v>1.414542812158441</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.506642119800916</v>
+        <v>1.430409108300058</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.510207598904038</v>
+        <v>1.333904010186145</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.313097751718183</v>
+        <v>1.675985458946389</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.473584292565954</v>
+        <v>1.834824873699408</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.655063554704011</v>
+        <v>1.453001519176605</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.955216353426781</v>
+        <v>1.613214885616135</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.453991029592015</v>
+        <v>1.341586726666413</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.385593716123391</v>
+        <v>1.425367214288293</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.75623771930468</v>
+        <v>1.567458776657437</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.413670984235294</v>
+        <v>1.411371567260882</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.454392231495953</v>
+        <v>1.51359701917527</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.533713699276705</v>
+        <v>1.331006500651404</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.788411875930595</v>
+        <v>1.238379765683639</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.403808454463737</v>
+        <v>1.635766941566181</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.573582412751529</v>
+        <v>1.564617261635099</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.44709665364401</v>
+        <v>1.210385497211979</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.751332034601592</v>
+        <v>1.516375131400208</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.375062835146327</v>
+        <v>1.369278860097194</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.367768172325037</v>
+        <v>1.510457187155403</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.521841441594556</v>
+        <v>1.484522495197168</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.281200626990948</v>
+        <v>1.779328725430172</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.429064368099274</v>
+        <v>1.570498119890101</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.435642750603416</v>
+        <v>1.414624312631694</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.540313693223722</v>
+        <v>1.576939015516466</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.358354868698628</v>
+        <v>1.528025248943515</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.545571866667948</v>
+        <v>1.347948992780323</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.513632965573876</v>
+        <v>1.367443395517749</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.594977217658621</v>
+        <v>1.388238113411129</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.492346694036979</v>
+        <v>1.426469660152491</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.601619775911247</v>
+        <v>1.542710644067205</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.858495203467573</v>
+        <v>1.474281708630522</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.640142334631461</v>
+        <v>1.611998883434328</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.285888850942863</v>
+        <v>1.416473283613228</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.531774353062875</v>
+        <v>1.385235414220392</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.491534372047597</v>
+        <v>1.619949695502261</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.446832892599082</v>
+        <v>1.492599950121991</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.675856368191639</v>
+        <v>1.737613219174654</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.83306765811483</v>
+        <v>1.615073225289768</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.620414376018839</v>
+        <v>1.411202927081728</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.310240140259358</v>
+        <v>1.627121127678896</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.363727357560348</v>
+        <v>1.551774133147645</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.71345610296049</v>
+        <v>1.486360189630245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.504416043654283</v>
+        <v>1.328706679442372</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.587388232828697</v>
+        <v>1.378503133249962</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.680335615782381</v>
+        <v>1.339970321985044</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.54469814733611</v>
+        <v>1.379183751100675</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.557232567625532</v>
+        <v>1.319078424094088</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.846013163708439</v>
+        <v>1.347422839922311</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.674693945918579</v>
+        <v>1.444999084452968</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.471880378561783</v>
+        <v>1.678752184526162</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.466309245129909</v>
+        <v>1.545310030009611</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.282007084606231</v>
+        <v>1.524830270396798</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.719182235919204</v>
+        <v>1.536119164881719</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.420361249504432</v>
+        <v>1.574736455304511</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.323380612957501</v>
+        <v>1.404583679639673</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.369753294538286</v>
+        <v>1.328976178699188</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.535992492061124</v>
+        <v>1.355372901049212</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.39414821174412</v>
+        <v>1.34953813517445</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.639662888055986</v>
+        <v>1.556440803819747</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.618807964256761</v>
+        <v>1.489377214199642</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.450827149727602</v>
+        <v>1.570238511580767</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.314394394192263</v>
+        <v>1.481314433380477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.405831436437171</v>
+        <v>1.390709041570371</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.400806852881583</v>
+        <v>1.495167223648761</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.185694814485886</v>
+        <v>1.582916175164107</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.475468752552187</v>
+        <v>1.525292701016446</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.669746850934454</v>
+        <v>1.67166109267985</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.563399101553085</v>
+        <v>1.610056401098684</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.682294781348732</v>
+        <v>1.602315791569917</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.263154004291677</v>
+        <v>1.544924315995078</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.146166768454082</v>
+        <v>1.668409227034275</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.710727202528857</v>
+        <v>1.516699394712521</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.512611354561799</v>
+        <v>1.154572218459661</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.331119820630177</v>
+        <v>1.511436887771809</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.524373509859216</v>
+        <v>1.441806810314771</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.472794733798903</v>
+        <v>1.495122480152404</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.238406014957517</v>
+        <v>1.608306207129394</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.417805961418979</v>
+        <v>1.420222749566596</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.495471472957926</v>
+        <v>1.425265270302586</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.634531742678889</v>
+        <v>1.597970055105799</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.478774361201118</v>
+        <v>1.527345569875176</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.592714191471349</v>
+        <v>1.448458017543075</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.272069549846493</v>
+        <v>1.813648955869628</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.824336749608772</v>
+        <v>1.501011912888833</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.371026216824848</v>
+        <v>1.50477751726163</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.516699412372593</v>
+        <v>1.697855949725824</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.668305340664118</v>
+        <v>1.592682902238252</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.543614981630194</v>
+        <v>1.57701559553034</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.451193897293007</v>
+        <v>1.284364917392526</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.552841879054507</v>
+        <v>1.56667833047282</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.621794971966803</v>
+        <v>1.560111353185315</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.589434253185499</v>
+        <v>1.336723062464453</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.47677370810056</v>
+        <v>1.551747351785683</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.676548390728494</v>
+        <v>1.695725057858082</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.757700697097019</v>
+        <v>1.338527634474137</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.41094051759948</v>
+        <v>1.816820979087511</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.488201608955172</v>
+        <v>1.662981047529147</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.49678961851031</v>
+        <v>1.739573470641676</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.567576785007615</v>
+        <v>1.252830392532599</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.540913939520234</v>
+        <v>1.344404886778857</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.461919785235962</v>
+        <v>1.139438544339501</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.521311330106564</v>
+        <v>1.611685020242406</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.359341622514318</v>
+        <v>1.49800632859529</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.462146695962714</v>
+        <v>1.44864031223348</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.444707982263745</v>
+        <v>1.633431944041816</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.125404274790474</v>
+        <v>1.393196617125889</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.273361700961513</v>
+        <v>1.86037191860888</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.351650188899181</v>
+        <v>1.538547934707664</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.445718253205894</v>
+        <v>1.532190544791133</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.66292330093274</v>
+        <v>1.40459161701454</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.318878722348722</v>
+        <v>1.517212046724808</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.31779944649068</v>
+        <v>1.75163823279803</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.747542439439305</v>
+        <v>1.475615153728774</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.551321161584312</v>
+        <v>1.793950277531309</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.484076009462659</v>
+        <v>1.504261064936819</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.598724374746088</v>
+        <v>1.566913218730174</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.582775677786752</v>
+        <v>1.428362604169653</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.558775135460052</v>
+        <v>1.586877498567705</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.673741239012574</v>
+        <v>1.408934437619619</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.41713882743347</v>
+        <v>1.442798098002035</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.097832619557902</v>
+        <v>1.684350606163793</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.335554430594757</v>
+        <v>1.37562444210705</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.50398510830473</v>
+        <v>1.455710584334738</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.311861260184775</v>
+        <v>1.563954648263886</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.661883381339106</v>
+        <v>1.400062923255857</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.360359114269307</v>
+        <v>1.384656171651409</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.28095140452039</v>
+        <v>1.712916829991995</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.231765526457558</v>
+        <v>1.461558919427174</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.597004664317566</v>
+        <v>1.462345416760913</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.676933254195135</v>
+        <v>1.592717119632887</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.634383799982319</v>
+        <v>1.367747334309794</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.780980411515895</v>
+        <v>1.508185474367621</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.573453983528791</v>
+        <v>1.420099831792452</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.455609590676809</v>
+        <v>1.542560354316367</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.330862020120463</v>
+        <v>1.415617895825152</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.596879910702425</v>
+        <v>1.649778686006498</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.459544173612602</v>
+        <v>1.530123691994898</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.610921116329003</v>
+        <v>1.444487791582873</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.791382018748722</v>
+        <v>1.527071093959782</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.30893280183304</v>
+        <v>1.540350164644781</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.677069796113155</v>
+        <v>1.340765709813827</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.569853474185246</v>
+        <v>1.300240255927015</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.435661757956886</v>
+        <v>1.577605122851232</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.635246188629627</v>
+        <v>1.302839186038927</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.417403832491281</v>
+        <v>1.772971639979823</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.635259781730614</v>
+        <v>1.371976411632954</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.605202015130824</v>
+        <v>1.486056540700031</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.538019480113588</v>
+        <v>1.300129206604698</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.53858018711453</v>
+        <v>1.885886779535313</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.197855053666194</v>
+        <v>1.358113212216401</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.386542919251918</v>
+        <v>1.505740500089912</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.601804745227944</v>
+        <v>1.491258782700405</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.42647576384854</v>
+        <v>1.476625901161367</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.375759113457522</v>
+        <v>1.610331964644365</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.480091488061331</v>
+        <v>1.728912948631786</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.421867756804456</v>
+        <v>1.389507913701434</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.326590730701684</v>
+        <v>1.635903674212041</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.370228070128065</v>
+        <v>1.429349552021713</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.713729655903252</v>
+        <v>1.503130183291503</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>1.4143166686417</v>
+        <v>1.433673348692147</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.756817723221181</v>
+        <v>1.411252902149488</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.483454182606362</v>
+        <v>1.569219086526098</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.533637304782392</v>
+        <v>1.711220629971221</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.550616263416741</v>
+        <v>1.528692258593406</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.373113146615485</v>
+        <v>1.666605867453528</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.690984730940111</v>
+        <v>1.428531515189671</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.623397978915601</v>
+        <v>1.614513200457471</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.606998042061817</v>
+        <v>1.40828839457277</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.421783915746994</v>
+        <v>1.406037662061511</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.370420043822516</v>
+        <v>1.252855739227478</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.473257501498927</v>
+        <v>1.611826933668281</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.557791167122317</v>
+        <v>1.461481585538822</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.673827048757686</v>
+        <v>1.315387765165973</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.482355402166554</v>
+        <v>1.381375133285757</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.366976861794285</v>
+        <v>1.543439391921</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>1.554954198445607</v>
+        <v>1.734375359034621</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.761495141595382</v>
+        <v>1.554705480220752</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.23366496551072</v>
+        <v>1.614222696830932</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.445116354211204</v>
+        <v>1.438929128455876</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.66090987990697</v>
+        <v>1.400738273862506</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.362685438513859</v>
+        <v>1.62430415256574</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.257482507739318</v>
+        <v>1.577668806159206</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.300715491283441</v>
+        <v>1.430502519835145</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.36871279038936</v>
+        <v>1.528954638203888</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.383435049313559</v>
+        <v>1.365834985596341</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.397763751910694</v>
+        <v>1.47271158954414</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.606361418740743</v>
+        <v>1.520741736688875</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.542144240960274</v>
+        <v>1.699947615318808</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.979072125716906</v>
+        <v>1.183141598035275</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.423418926431825</v>
+        <v>1.56599294931611</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.431685545332432</v>
+        <v>1.393715457652214</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.783027688053221</v>
+        <v>1.455569493701153</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.676561385570905</v>
+        <v>1.504717030594332</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>face/face083.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.325072364572249</v>
+        <v>1.918214842796951</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.705743152533326</v>
+        <v>1.527223404554932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.495565481285688</v>
+        <v>1.349556939052183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.4366326711806</v>
+        <v>1.676326120973505</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.71853177981706</v>
+        <v>1.624739670515149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.54260174208216</v>
+        <v>1.462096063260148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.279172039859696</v>
+        <v>1.579006946000499</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.544941130594185</v>
+        <v>1.571401341406341</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.296275761033751</v>
+        <v>1.845025633506284</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.592597451844214</v>
+        <v>1.663627445104987</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.527989941539665</v>
+        <v>1.796432856210614</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.457648311436049</v>
+        <v>1.649491268218518</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.42270186451743</v>
+        <v>1.428942915434386</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.288487958979174</v>
+        <v>1.539873744147224</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.636169544820538</v>
+        <v>1.390084111404568</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.598735093130236</v>
+        <v>1.559779133819869</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.536858125968218</v>
+        <v>1.530193457311738</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.190346184857662</v>
+        <v>1.663551309754482</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.63587934813546</v>
+        <v>1.312430931731592</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.307617350538756</v>
+        <v>1.71795756973513</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.698890963009153</v>
+        <v>1.635090682485744</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.427206550269263</v>
+        <v>1.3426787509494</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.292333369184117</v>
+        <v>1.426353735656132</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.424622286897877</v>
+        <v>1.454248017018079</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.504445714945678</v>
+        <v>1.50630568282948</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.431867121708954</v>
+        <v>1.30178961175528</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.713410915575569</v>
+        <v>1.48546699434601</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.33150575426572</v>
+        <v>1.784834402849527</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.496800320570937</v>
+        <v>1.520602562926295</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.759701914849736</v>
+        <v>1.586778609870494</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.549516431104016</v>
+        <v>1.595559781884826</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.454867227269159</v>
+        <v>1.531425599699623</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.601737932691464</v>
+        <v>1.727122049658744</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.572206058282867</v>
+        <v>1.543749256250651</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.445265576568383</v>
+        <v>1.509893629725542</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.359114202148683</v>
+        <v>1.350399239991785</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.659265042893933</v>
+        <v>1.601203455582833</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.373392151199409</v>
+        <v>1.452906046035411</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.396069033439891</v>
+        <v>1.414483528754117</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.406030212078901</v>
+        <v>1.534187862001342</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.514293537180926</v>
+        <v>1.449629433057685</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.717031755742519</v>
+        <v>1.402881012598031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.575415598293188</v>
+        <v>1.404343641500882</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.60168831492813</v>
+        <v>1.462006071919775</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.534335609232744</v>
+        <v>1.461769395276114</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.519478728306389</v>
+        <v>1.536034262061098</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.548329092463632</v>
+        <v>1.41092864245199</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.373121086137557</v>
+        <v>1.667585061387046</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.433261852566246</v>
+        <v>1.690423029119219</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.327073194203003</v>
+        <v>1.417219395922515</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.375175228660423</v>
+        <v>1.331040289607195</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.343996791198346</v>
+        <v>1.584380913443486</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.679188369321945</v>
+        <v>1.338467798477467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.412589701034444</v>
+        <v>1.556022364430289</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.544600999392546</v>
+        <v>1.153048211713224</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.549551175129057</v>
+        <v>1.49793220344256</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.268568585704116</v>
+        <v>1.529914378529116</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.57137925818943</v>
+        <v>1.401435305091316</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.626742657362655</v>
+        <v>1.731471553156835</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.428059246123742</v>
+        <v>1.298769336066608</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.557749026327328</v>
+        <v>1.575666601069082</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.738574824490011</v>
+        <v>1.608705124969422</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.414542812158441</v>
+        <v>1.690710753675256</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.430409108300058</v>
+        <v>1.591657142953019</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.333904010186145</v>
+        <v>1.770365723107047</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.675985458946389</v>
+        <v>1.438277100273967</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.834824873699408</v>
+        <v>1.423472319398344</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.453001519176605</v>
+        <v>1.640919614949421</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.613214885616135</v>
+        <v>1.43061690784569</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.341586726666413</v>
+        <v>1.328042286594923</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.425367214288293</v>
+        <v>1.43489486909672</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.567458776657437</v>
+        <v>1.567528718736918</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.411371567260882</v>
+        <v>1.440745751615973</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.51359701917527</v>
+        <v>1.221480271103014</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.331006500651404</v>
+        <v>1.34274605333367</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.238379765683639</v>
+        <v>1.370252082534638</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.635766941566181</v>
+        <v>1.232214343690558</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.564617261635099</v>
+        <v>1.566121736028037</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.210385497211979</v>
+        <v>1.378815193771008</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.516375131400208</v>
+        <v>1.485426930833853</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.369278860097194</v>
+        <v>1.807014591962215</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.510457187155403</v>
+        <v>1.349772502100723</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.484522495197168</v>
+        <v>1.468145578362404</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.779328725430172</v>
+        <v>1.545008700232767</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.570498119890101</v>
+        <v>1.375286776207064</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.414624312631694</v>
+        <v>1.520155525187789</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.576939015516466</v>
+        <v>1.344854557731348</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.528025248943515</v>
+        <v>1.23743583033423</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.347948992780323</v>
+        <v>1.720529636497747</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.367443395517749</v>
+        <v>1.70447327267605</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.388238113411129</v>
+        <v>1.44814976432883</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.426469660152491</v>
+        <v>1.397844897281922</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.542710644067205</v>
+        <v>1.245676411787232</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.474281708630522</v>
+        <v>1.746359474809754</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.611998883434328</v>
+        <v>1.281792157833452</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.416473283613228</v>
+        <v>1.234756264561948</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.385235414220392</v>
+        <v>1.359774271204075</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.619949695502261</v>
+        <v>1.544949600469018</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.492599950121991</v>
+        <v>1.564236241857512</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.737613219174654</v>
+        <v>1.336905994664364</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.615073225289768</v>
+        <v>1.366618289264562</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.411202927081728</v>
+        <v>1.616903357036856</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.627121127678896</v>
+        <v>1.632917264026405</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.551774133147645</v>
+        <v>1.616391389303823</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.486360189630245</v>
+        <v>1.533031899162275</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.328706679442372</v>
+        <v>1.623949615245879</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.378503133249962</v>
+        <v>1.296502326598378</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.339970321985044</v>
+        <v>1.407816147505135</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.379183751100675</v>
+        <v>1.129547280728291</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.319078424094088</v>
+        <v>1.267502240547444</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.347422839922311</v>
+        <v>1.75984412442883</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.444999084452968</v>
+        <v>1.470581486686917</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.678752184526162</v>
+        <v>1.398362496691541</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.545310030009611</v>
+        <v>1.703801009616523</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.524830270396798</v>
+        <v>1.240791873369758</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.536119164881719</v>
+        <v>1.414487591018447</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.574736455304511</v>
+        <v>1.629268373703894</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.404583679639673</v>
+        <v>1.480607509563016</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.328976178699188</v>
+        <v>1.494757168671153</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.355372901049212</v>
+        <v>1.520568671433914</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.34953813517445</v>
+        <v>1.240543049029436</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.556440803819747</v>
+        <v>1.488637355728377</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.489377214199642</v>
+        <v>1.457657408534041</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.570238511580767</v>
+        <v>1.620082158087199</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.481314433380477</v>
+        <v>1.465629665228544</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.390709041570371</v>
+        <v>1.545373848791373</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.495167223648761</v>
+        <v>1.65496165140433</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.582916175164107</v>
+        <v>1.563126757373357</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.525292701016446</v>
+        <v>1.326820652577322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.67166109267985</v>
+        <v>1.570073547578078</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.610056401098684</v>
+        <v>1.580134589212004</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.602315791569917</v>
+        <v>1.450591129336991</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.544924315995078</v>
+        <v>1.563233644307858</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.668409227034275</v>
+        <v>1.560032060061989</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.516699394712521</v>
+        <v>1.456765519946348</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.154572218459661</v>
+        <v>1.493419860191465</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.511436887771809</v>
+        <v>1.668981306991655</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.441806810314771</v>
+        <v>1.235159829336085</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.495122480152404</v>
+        <v>1.195852245621738</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.608306207129394</v>
+        <v>1.67475936744708</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.420222749566596</v>
+        <v>1.277327852702383</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.425265270302586</v>
+        <v>1.73601795212554</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.597970055105799</v>
+        <v>1.351636571186285</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.527345569875176</v>
+        <v>1.405916864311744</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.448458017543075</v>
+        <v>1.591530340029178</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.813648955869628</v>
+        <v>1.446467522138792</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.501011912888833</v>
+        <v>1.494110802499198</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.50477751726163</v>
+        <v>1.291963324822426</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.697855949725824</v>
+        <v>1.579279245025938</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.592682902238252</v>
+        <v>1.317854992678785</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.57701559553034</v>
+        <v>1.526119496631851</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.284364917392526</v>
+        <v>1.593363129318293</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.56667833047282</v>
+        <v>1.547019475840007</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.560111353185315</v>
+        <v>1.698003527731944</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.336723062464453</v>
+        <v>1.451585457138577</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.551747351785683</v>
+        <v>1.468262776285826</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.695725057858082</v>
+        <v>1.62096979084762</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.338527634474137</v>
+        <v>1.528107977672854</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.816820979087511</v>
+        <v>1.540895424105807</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.662981047529147</v>
+        <v>1.725771969124972</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.739573470641676</v>
+        <v>1.568889215205847</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.252830392532599</v>
+        <v>1.348025659336495</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.344404886778857</v>
+        <v>1.493533960147738</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.139438544339501</v>
+        <v>1.4761425113807</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.611685020242406</v>
+        <v>1.526543719203511</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.49800632859529</v>
+        <v>1.529072383507951</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.44864031223348</v>
+        <v>1.44207164350535</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.633431944041816</v>
+        <v>1.62718746963712</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.393196617125889</v>
+        <v>1.610499620603714</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.86037191860888</v>
+        <v>1.708022129386363</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.538547934707664</v>
+        <v>1.731522743253899</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.532190544791133</v>
+        <v>1.631172467466387</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.40459161701454</v>
+        <v>1.30816527031011</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.517212046724808</v>
+        <v>1.334861914426241</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.75163823279803</v>
+        <v>1.735178265078497</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.475615153728774</v>
+        <v>1.743593987102183</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.793950277531309</v>
+        <v>1.635254854029437</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.504261064936819</v>
+        <v>1.609997348861078</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.566913218730174</v>
+        <v>1.552882251805626</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.428362604169653</v>
+        <v>1.402099787302367</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.586877498567705</v>
+        <v>1.791218702034575</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.408934437619619</v>
+        <v>1.400654068946148</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.442798098002035</v>
+        <v>1.439867348017908</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.684350606163793</v>
+        <v>1.599436829058507</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.37562444210705</v>
+        <v>1.588431536660324</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.455710584334738</v>
+        <v>1.613760430297259</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.563954648263886</v>
+        <v>1.351038897500281</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.400062923255857</v>
+        <v>1.899616232151845</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.384656171651409</v>
+        <v>1.503035427884212</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.712916829991995</v>
+        <v>1.595227435321236</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.461558919427174</v>
+        <v>1.594764074176473</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.462345416760913</v>
+        <v>1.357122252137943</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.592717119632887</v>
+        <v>1.541405038625589</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.367747334309794</v>
+        <v>1.464429666669496</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.508185474367621</v>
+        <v>1.62555789504471</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.420099831792452</v>
+        <v>1.665353519386197</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.542560354316367</v>
+        <v>1.484093288947089</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.415617895825152</v>
+        <v>1.49490695000496</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.649778686006498</v>
+        <v>1.481737177974813</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.530123691994898</v>
+        <v>1.376886083560384</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.444487791582873</v>
+        <v>1.408481211172227</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.527071093959782</v>
+        <v>1.6092721120095</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.540350164644781</v>
+        <v>1.503418984565345</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.340765709813827</v>
+        <v>1.600446999660297</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.300240255927015</v>
+        <v>1.412152001959971</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.577605122851232</v>
+        <v>1.373809323266426</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.302839186038927</v>
+        <v>1.515899698652105</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.772971639979823</v>
+        <v>1.635261102488944</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.371976411632954</v>
+        <v>1.374889753759135</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.486056540700031</v>
+        <v>1.478346840966463</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.300129206604698</v>
+        <v>1.564045176347571</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.885886779535313</v>
+        <v>1.359396927950171</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.358113212216401</v>
+        <v>1.578783134596942</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.505740500089912</v>
+        <v>1.364620812565322</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.491258782700405</v>
+        <v>1.42039861642863</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.476625901161367</v>
+        <v>1.671877160720015</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.610331964644365</v>
+        <v>1.596702008380565</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.728912948631786</v>
+        <v>1.453145488117147</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.389507913701434</v>
+        <v>1.589814364971624</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.635903674212041</v>
+        <v>1.503219559686198</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.429349552021713</v>
+        <v>1.676548307160613</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.503130183291503</v>
+        <v>1.793862648289666</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.433673348692147</v>
+        <v>1.623621407435359</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.411252902149488</v>
+        <v>1.449586354443424</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.569219086526098</v>
+        <v>1.72042128791945</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.711220629971221</v>
+        <v>1.503763145100699</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.528692258593406</v>
+        <v>1.655774571474156</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.666605867453528</v>
+        <v>1.372264822404236</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.428531515189671</v>
+        <v>1.573843278951482</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.614513200457471</v>
+        <v>1.561788391541509</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.40828839457277</v>
+        <v>1.309331698658385</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.406037662061511</v>
+        <v>1.432241081610681</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.252855739227478</v>
+        <v>1.64388809485265</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.611826933668281</v>
+        <v>1.742416095534227</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.461481585538822</v>
+        <v>1.763610054837506</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.315387765165973</v>
+        <v>1.45019437237549</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.381375133285757</v>
+        <v>1.366241821087285</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.543439391921</v>
+        <v>1.397179107792061</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.734375359034621</v>
+        <v>1.50105904966656</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.554705480220752</v>
+        <v>1.57130079703243</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.614222696830932</v>
+        <v>1.474297410614362</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.438929128455876</v>
+        <v>1.560413918858657</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.400738273862506</v>
+        <v>1.524526023706354</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.62430415256574</v>
+        <v>1.521918256134197</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.577668806159206</v>
+        <v>1.767237551897148</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.430502519835145</v>
+        <v>1.412040460768384</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.528954638203888</v>
+        <v>1.52045269544333</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.365834985596341</v>
+        <v>1.599164699142783</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.47271158954414</v>
+        <v>1.606620771809558</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.520741736688875</v>
+        <v>1.281807526841381</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.699947615318808</v>
+        <v>1.586973848614678</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.183141598035275</v>
+        <v>1.249502693822417</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.56599294931611</v>
+        <v>1.501743139899431</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.393715457652214</v>
+        <v>1.426778251150962</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.455569493701153</v>
+        <v>1.189201027648249</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.504717030594332</v>
+        <v>1.492208990853659</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>house/house081.jpg</t>
   </si>
   <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
+    <t>flower/flower083.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
     <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.918214842796951</v>
+        <v>1.290571169220154</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.527223404554932</v>
+        <v>1.359565722765784</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.349556939052183</v>
+        <v>1.434448738374211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.676326120973505</v>
+        <v>1.605093894929132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.624739670515149</v>
+        <v>1.322839063628376</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.462096063260148</v>
+        <v>1.559908919487291</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.579006946000499</v>
+        <v>1.504749287792453</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.571401341406341</v>
+        <v>1.299257131255378</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.845025633506284</v>
+        <v>1.423051178105596</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.663627445104987</v>
+        <v>1.412288417998511</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.796432856210614</v>
+        <v>1.455492641490857</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.649491268218518</v>
+        <v>1.544860613186773</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.428942915434386</v>
+        <v>1.687632013047911</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.539873744147224</v>
+        <v>1.503112766038131</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1.390084111404568</v>
+        <v>1.38053086623126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.559779133819869</v>
+        <v>1.353451175944731</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.530193457311738</v>
+        <v>1.436468202704704</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.663551309754482</v>
+        <v>1.587919773905615</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.312430931731592</v>
+        <v>1.410380116571723</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.71795756973513</v>
+        <v>1.291195153053307</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.635090682485744</v>
+        <v>1.332210381207923</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.3426787509494</v>
+        <v>1.583914802722433</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.426353735656132</v>
+        <v>1.410168204722386</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.454248017018079</v>
+        <v>1.49819078622883</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.50630568282948</v>
+        <v>1.375853330013968</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.30178961175528</v>
+        <v>1.574487125319997</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.48546699434601</v>
+        <v>1.641910576138685</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.784834402849527</v>
+        <v>1.701157773144454</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.520602562926295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.586778609870494</v>
+        <v>1.50459012848943</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.595559781884826</v>
+        <v>1.297980420380081</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.531425599699623</v>
+        <v>1.577156713013185</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.727122049658744</v>
+        <v>1.596951494726412</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1.543749256250651</v>
+        <v>1.505612274625356</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.509893629725542</v>
+        <v>1.677941508336343</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1.350399239991785</v>
+        <v>1.462563344505912</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.601203455582833</v>
+        <v>1.664133029309141</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.452906046035411</v>
+        <v>1.498304114036501</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.414483528754117</v>
+        <v>1.479570230120231</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.534187862001342</v>
+        <v>1.481232725127497</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.449629433057685</v>
+        <v>1.412724776578449</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.402881012598031</v>
+        <v>1.297505514241248</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.404343641500882</v>
+        <v>1.480863134363011</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.462006071919775</v>
+        <v>1.423284301916778</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.461769395276114</v>
+        <v>1.299298461317164</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.536034262061098</v>
+        <v>1.397114038819826</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.41092864245199</v>
+        <v>1.811990438921992</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.667585061387046</v>
+        <v>1.634052139213669</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.690423029119219</v>
+        <v>1.627491396396768</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.417219395922515</v>
+        <v>1.222685548906161</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.331040289607195</v>
+        <v>1.472747988374273</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.584380913443486</v>
+        <v>1.237838653734057</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.338467798477467</v>
+        <v>1.382040822291847</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.556022364430289</v>
+        <v>1.628878500687834</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.153048211713224</v>
+        <v>1.559868696214843</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.49793220344256</v>
+        <v>1.632297174311335</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.529914378529116</v>
+        <v>1.17043798452884</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.401435305091316</v>
+        <v>1.610061350626441</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.731471553156835</v>
+        <v>1.46648254297349</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.298769336066608</v>
+        <v>1.595312336725149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.575666601069082</v>
+        <v>1.605669645325717</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.608705124969422</v>
+        <v>1.334475512505129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.690710753675256</v>
+        <v>1.801672798923419</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.591657142953019</v>
+        <v>1.237348308657227</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.770365723107047</v>
+        <v>1.386430776462887</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.438277100273967</v>
+        <v>1.529990466510118</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.423472319398344</v>
+        <v>1.226477774379463</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.640919614949421</v>
+        <v>1.462219765549609</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.43061690784569</v>
+        <v>1.487176939979934</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.328042286594923</v>
+        <v>1.476621608660247</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.43489486909672</v>
+        <v>1.221646995741385</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.567528718736918</v>
+        <v>1.690899962749208</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.440745751615973</v>
+        <v>1.237867137279175</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.221480271103014</v>
+        <v>1.602893550450456</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.34274605333367</v>
+        <v>1.387874711059707</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.370252082534638</v>
+        <v>1.396022201633806</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.232214343690558</v>
+        <v>1.480274700387425</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.566121736028037</v>
+        <v>1.416642763363615</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.378815193771008</v>
+        <v>1.754272397530453</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.485426930833853</v>
+        <v>1.538414955177163</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.807014591962215</v>
+        <v>1.600817826808797</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.349772502100723</v>
+        <v>1.715666170725371</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.468145578362404</v>
+        <v>1.121106462544373</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.545008700232767</v>
+        <v>1.343792763514092</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1.375286776207064</v>
+        <v>1.402677833285625</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.520155525187789</v>
+        <v>1.522420051846849</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.344854557731348</v>
+        <v>1.497319920468709</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.23743583033423</v>
+        <v>1.632337700728961</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.720529636497747</v>
+        <v>1.613883495362955</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.70447327267605</v>
+        <v>1.393724673552644</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.44814976432883</v>
+        <v>1.456136058313776</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.397844897281922</v>
+        <v>1.306697876026049</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.245676411787232</v>
+        <v>1.533610859660813</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.746359474809754</v>
+        <v>1.496738819096099</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.281792157833452</v>
+        <v>1.586727356275577</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.234756264561948</v>
+        <v>1.659470573495446</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.359774271204075</v>
+        <v>1.446319607825002</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.544949600469018</v>
+        <v>1.519535389818733</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.564236241857512</v>
+        <v>1.560201074196256</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.336905994664364</v>
+        <v>1.624930150278262</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.366618289264562</v>
+        <v>1.272835611917629</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.616903357036856</v>
+        <v>1.734378385387112</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.632917264026405</v>
+        <v>1.280755988656531</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.616391389303823</v>
+        <v>1.381803420314138</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.533031899162275</v>
+        <v>1.4161640843085</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.623949615245879</v>
+        <v>1.352972196908466</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.296502326598378</v>
+        <v>1.386566350556813</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.407816147505135</v>
+        <v>1.518439039008795</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.129547280728291</v>
+        <v>1.50227468230951</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.267502240547444</v>
+        <v>1.578413979117425</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.75984412442883</v>
+        <v>1.371692400695338</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.470581486686917</v>
+        <v>1.447411293772075</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.398362496691541</v>
+        <v>1.278852510848456</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.703801009616523</v>
+        <v>1.522678381560409</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.240791873369758</v>
+        <v>1.702732506030914</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.414487591018447</v>
+        <v>1.612741151641206</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.629268373703894</v>
+        <v>1.566480896894991</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.480607509563016</v>
+        <v>1.34204011700995</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1.494757168671153</v>
+        <v>1.456711591742393</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.520568671433914</v>
+        <v>1.450389382754955</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.240543049029436</v>
+        <v>1.528726790281765</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.488637355728377</v>
+        <v>1.327270618115619</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.457657408534041</v>
+        <v>1.371637834935512</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.620082158087199</v>
+        <v>1.677927393169</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.465629665228544</v>
+        <v>1.511475276792903</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.545373848791373</v>
+        <v>1.823226842293519</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.65496165140433</v>
+        <v>1.629935522841048</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.563126757373357</v>
+        <v>1.564409265510312</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.326820652577322</v>
+        <v>1.379168150315012</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.570073547578078</v>
+        <v>1.728454892395879</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.580134589212004</v>
+        <v>1.338632851726411</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.450591129336991</v>
+        <v>1.378799398466619</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.563233644307858</v>
+        <v>1.643397493710689</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.560032060061989</v>
+        <v>1.462066870135807</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.456765519946348</v>
+        <v>1.551826592226043</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.493419860191465</v>
+        <v>1.714401650445867</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.668981306991655</v>
+        <v>1.552187317301269</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.235159829336085</v>
+        <v>1.652994484379575</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.195852245621738</v>
+        <v>1.719369295741077</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.67475936744708</v>
+        <v>1.505216534338011</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.277327852702383</v>
+        <v>1.620095075011732</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.73601795212554</v>
+        <v>1.734612991307282</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.351636571186285</v>
+        <v>1.435514638958668</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.405916864311744</v>
+        <v>1.352449239382306</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.591530340029178</v>
+        <v>1.688036777571079</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.446467522138792</v>
+        <v>1.425624451336353</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.494110802499198</v>
+        <v>1.466583988631419</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.291963324822426</v>
+        <v>1.582619420198842</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.579279245025938</v>
+        <v>1.429833296574126</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.317854992678785</v>
+        <v>1.510075395990907</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.526119496631851</v>
+        <v>1.659257378429419</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.593363129318293</v>
+        <v>1.60468686919863</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.547019475840007</v>
+        <v>1.465321391716101</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.698003527731944</v>
+        <v>1.484696511695342</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.451585457138577</v>
+        <v>1.497900282163852</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.468262776285826</v>
+        <v>1.685745187008596</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.62096979084762</v>
+        <v>1.48760578813462</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.528107977672854</v>
+        <v>1.459994797080852</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.540895424105807</v>
+        <v>1.63073424934255</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.725771969124972</v>
+        <v>1.419523026938395</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.568889215205847</v>
+        <v>1.37778397678728</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.348025659336495</v>
+        <v>1.420997980488405</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.493533960147738</v>
+        <v>1.504034648192985</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.4761425113807</v>
+        <v>1.781208371976739</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.526543719203511</v>
+        <v>1.284845340836277</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.529072383507951</v>
+        <v>1.41961196199813</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.44207164350535</v>
+        <v>1.416994785273057</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.62718746963712</v>
+        <v>1.54603345364354</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.610499620603714</v>
+        <v>1.524854064625019</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.708022129386363</v>
+        <v>1.550839752093503</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.731522743253899</v>
+        <v>1.402098110748808</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.631172467466387</v>
+        <v>1.592010884682675</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.30816527031011</v>
+        <v>1.565643925858711</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.334861914426241</v>
+        <v>1.538583959439484</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.735178265078497</v>
+        <v>1.343819568412989</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.743593987102183</v>
+        <v>1.489994377912758</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.635254854029437</v>
+        <v>1.570542236665034</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.609997348861078</v>
+        <v>1.388226924479106</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.552882251805626</v>
+        <v>1.355709285543822</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.402099787302367</v>
+        <v>1.357026635573847</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.791218702034575</v>
+        <v>1.515318159096236</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.400654068946148</v>
+        <v>1.249686946494775</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.439867348017908</v>
+        <v>1.641144572862162</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.599436829058507</v>
+        <v>1.263704072212009</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.588431536660324</v>
+        <v>1.281094875166176</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.613760430297259</v>
+        <v>1.636096171492289</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.351038897500281</v>
+        <v>1.628648173035804</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.899616232151845</v>
+        <v>1.356393199455116</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.503035427884212</v>
+        <v>1.651108496172808</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.595227435321236</v>
+        <v>1.414407131747841</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.594764074176473</v>
+        <v>1.306287969129648</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.357122252137943</v>
+        <v>1.532087254759874</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.541405038625589</v>
+        <v>1.47251116320781</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.464429666669496</v>
+        <v>1.468625991994006</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.62555789504471</v>
+        <v>1.287528441764501</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.665353519386197</v>
+        <v>1.695129298518695</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.484093288947089</v>
+        <v>1.72968982904225</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.49490695000496</v>
+        <v>1.399491977159651</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.481737177974813</v>
+        <v>1.568380806102438</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.376886083560384</v>
+        <v>1.421204369834297</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.408481211172227</v>
+        <v>1.670483285093211</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.6092721120095</v>
+        <v>1.60153253746577</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.503418984565345</v>
+        <v>1.514666385090568</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.600446999660297</v>
+        <v>1.550350478755569</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.412152001959971</v>
+        <v>1.610163961476421</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.373809323266426</v>
+        <v>1.168272768679528</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.515899698652105</v>
+        <v>1.650749994201452</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.635261102488944</v>
+        <v>1.612644388218773</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.374889753759135</v>
+        <v>1.453437904066069</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.478346840966463</v>
+        <v>1.343477903186417</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.564045176347571</v>
+        <v>1.426228711576128</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.359396927950171</v>
+        <v>1.434062795165759</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1.578783134596942</v>
+        <v>1.423729649451349</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.364620812565322</v>
+        <v>1.518552944247025</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.42039861642863</v>
+        <v>1.619425691923227</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.671877160720015</v>
+        <v>1.523021269246175</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.596702008380565</v>
+        <v>1.550993258924424</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.453145488117147</v>
+        <v>1.571605792526892</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.589814364971624</v>
+        <v>1.759473189898772</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.503219559686198</v>
+        <v>1.523624907444439</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.676548307160613</v>
+        <v>1.387208114669046</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.793862648289666</v>
+        <v>1.538272117238306</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.623621407435359</v>
+        <v>1.264679969571525</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.449586354443424</v>
+        <v>1.446172229924191</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.72042128791945</v>
+        <v>1.681569145710015</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.503763145100699</v>
+        <v>1.608643585243924</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.655774571474156</v>
+        <v>1.466780422722594</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.372264822404236</v>
+        <v>1.528606388058636</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.573843278951482</v>
+        <v>1.551578404772133</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.561788391541509</v>
+        <v>1.605554068591719</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.309331698658385</v>
+        <v>1.332664540648647</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.432241081610681</v>
+        <v>1.578975692073518</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.64388809485265</v>
+        <v>1.47124312680883</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.742416095534227</v>
+        <v>1.019285198905774</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.763610054837506</v>
+        <v>1.392399963981736</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.45019437237549</v>
+        <v>1.503746340946874</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.366241821087285</v>
+        <v>1.534356003932912</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.397179107792061</v>
+        <v>1.408044973622929</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.50105904966656</v>
+        <v>1.775693324126441</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.57130079703243</v>
+        <v>1.454894712010495</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.474297410614362</v>
+        <v>1.495626741839575</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.560413918858657</v>
+        <v>1.551789730806015</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.524526023706354</v>
+        <v>1.344104846051586</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.521918256134197</v>
+        <v>1.2671698308063</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.767237551897148</v>
+        <v>1.53558393322444</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>1.412040460768384</v>
+        <v>1.575732531485405</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.52045269544333</v>
+        <v>1.751141735520362</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.599164699142783</v>
+        <v>1.32321400300555</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.606620771809558</v>
+        <v>1.744099664181241</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.281807526841381</v>
+        <v>1.824307108098594</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.586973848614678</v>
+        <v>1.640834534158875</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.249502693822417</v>
+        <v>1.41938797018849</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.501743139899431</v>
+        <v>1.482140718865461</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.426778251150962</v>
+        <v>1.530424592713791</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.189201027648249</v>
+        <v>1.316818206828167</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.492208990853659</v>
+        <v>1.607499229571182</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
   </si>
   <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>flower/flower084.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.290571169220154</v>
+        <v>1.743107685282627</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.359565722765784</v>
+        <v>1.406953662017011</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.434448738374211</v>
+        <v>1.276656943066742</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.605093894929132</v>
+        <v>1.896547859237462</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.322839063628376</v>
+        <v>1.240440652369085</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.559908919487291</v>
+        <v>1.541033331162841</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.504749287792453</v>
+        <v>1.375140295226191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.299257131255378</v>
+        <v>1.45135131624125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.423051178105596</v>
+        <v>1.436531147070774</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.412288417998511</v>
+        <v>1.651271679612308</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.455492641490857</v>
+        <v>1.51893941172079</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.544860613186773</v>
+        <v>1.493020425238217</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.687632013047911</v>
+        <v>1.472056225116378</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.503112766038131</v>
+        <v>1.562379674929951</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.38053086623126</v>
+        <v>1.359219036766891</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.353451175944731</v>
+        <v>1.693641472159219</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.436468202704704</v>
+        <v>1.754826814652481</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.587919773905615</v>
+        <v>1.556476616487306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.410380116571723</v>
+        <v>1.169111137510457</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.291195153053307</v>
+        <v>1.457571425712675</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.332210381207923</v>
+        <v>1.722891662521317</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.583914802722433</v>
+        <v>1.714335025474486</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.410168204722386</v>
+        <v>1.283728186898556</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.49819078622883</v>
+        <v>1.354042532749752</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.375853330013968</v>
+        <v>1.372488341046332</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.574487125319997</v>
+        <v>1.86617985896606</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.641910576138685</v>
+        <v>1.494923818761508</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.701157773144454</v>
+        <v>1.490720230789289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>1.586856761176852</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.50459012848943</v>
+        <v>1.733681410967068</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.297980420380081</v>
+        <v>1.45442684215474</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.577156713013185</v>
+        <v>1.366820158658888</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.596951494726412</v>
+        <v>1.353107058158789</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.505612274625356</v>
+        <v>1.543386178840486</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.677941508336343</v>
+        <v>1.407736846623151</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.462563344505912</v>
+        <v>1.286246301048963</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.664133029309141</v>
+        <v>1.518306374977341</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.498304114036501</v>
+        <v>1.563614062274422</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.479570230120231</v>
+        <v>1.365315878771082</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.481232725127497</v>
+        <v>1.500603798551984</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.412724776578449</v>
+        <v>1.605899044303206</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.297505514241248</v>
+        <v>1.665633176376573</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.480863134363011</v>
+        <v>1.506712130506546</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.423284301916778</v>
+        <v>1.568223666946217</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.299298461317164</v>
+        <v>1.365847089067686</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.397114038819826</v>
+        <v>1.515102754060327</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.811990438921992</v>
+        <v>1.339389560050244</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.634052139213669</v>
+        <v>1.60021289106731</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.627491396396768</v>
+        <v>1.339264716509495</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.222685548906161</v>
+        <v>1.631944098865609</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.472747988374273</v>
+        <v>1.533491192249249</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.237838653734057</v>
+        <v>1.464700352400538</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.382040822291847</v>
+        <v>1.459452925927981</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.628878500687834</v>
+        <v>1.689030031175772</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.559868696214843</v>
+        <v>1.366909404571437</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.632297174311335</v>
+        <v>1.399662201944043</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.17043798452884</v>
+        <v>1.333953985276446</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.610061350626441</v>
+        <v>1.511398274706581</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.46648254297349</v>
+        <v>1.699617386513868</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.595312336725149</v>
+        <v>1.804116316548471</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.605669645325717</v>
+        <v>1.402647966507693</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.334475512505129</v>
+        <v>1.499673887711654</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.801672798923419</v>
+        <v>1.426320225789551</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.237348308657227</v>
+        <v>1.558125274879504</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.386430776462887</v>
+        <v>1.45763315860363</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.529990466510118</v>
+        <v>1.63509848926044</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.226477774379463</v>
+        <v>1.42759237514098</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.462219765549609</v>
+        <v>1.456709808124088</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.487176939979934</v>
+        <v>1.524743769839481</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.476621608660247</v>
+        <v>1.662412751625909</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.221646995741385</v>
+        <v>1.544495779397861</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.690899962749208</v>
+        <v>1.388266046176928</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.237867137279175</v>
+        <v>1.464096429054107</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.602893550450456</v>
+        <v>1.23322163051437</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.387874711059707</v>
+        <v>1.568286876023778</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.396022201633806</v>
+        <v>1.213732987398189</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.480274700387425</v>
+        <v>1.545688377339674</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.416642763363615</v>
+        <v>1.293237273154659</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.754272397530453</v>
+        <v>1.545052449395526</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.538414955177163</v>
+        <v>1.65904836292554</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.600817826808797</v>
+        <v>1.521522825520265</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.715666170725371</v>
+        <v>1.504578175840339</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.121106462544373</v>
+        <v>1.715647202613476</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.343792763514092</v>
+        <v>1.503472653786239</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.402677833285625</v>
+        <v>1.623145212672473</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.522420051846849</v>
+        <v>1.397113058206824</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.497319920468709</v>
+        <v>1.627000144074481</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.632337700728961</v>
+        <v>1.454780725773187</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.613883495362955</v>
+        <v>1.395243422074384</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.393724673552644</v>
+        <v>1.399585520072364</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.456136058313776</v>
+        <v>1.470642627556078</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.306697876026049</v>
+        <v>1.256163152828211</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.533610859660813</v>
+        <v>1.552215122638231</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.496738819096099</v>
+        <v>1.40760322155772</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.586727356275577</v>
+        <v>1.40396449397113</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.659470573495446</v>
+        <v>1.326920381429671</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.446319607825002</v>
+        <v>1.607033232000634</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.519535389818733</v>
+        <v>1.267909697448653</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.560201074196256</v>
+        <v>1.613764021850529</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.624930150278262</v>
+        <v>1.330497304648311</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.272835611917629</v>
+        <v>1.389847872428263</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.734378385387112</v>
+        <v>1.711407799329746</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.280755988656531</v>
+        <v>1.491109173301992</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.381803420314138</v>
+        <v>1.697993655423244</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.4161640843085</v>
+        <v>1.727095406729109</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.352972196908466</v>
+        <v>1.442951418403252</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.386566350556813</v>
+        <v>1.677826635990842</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.518439039008795</v>
+        <v>1.656145796544485</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.50227468230951</v>
+        <v>1.533293153459575</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.578413979117425</v>
+        <v>1.321715333837581</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.371692400695338</v>
+        <v>1.468495905779551</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.447411293772075</v>
+        <v>1.650997651712996</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.278852510848456</v>
+        <v>1.500015903901487</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.522678381560409</v>
+        <v>1.397602213936553</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.702732506030914</v>
+        <v>1.187752545328449</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.612741151641206</v>
+        <v>1.467449103504058</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.566480896894991</v>
+        <v>1.261545155776331</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.34204011700995</v>
+        <v>1.449195031398352</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.456711591742393</v>
+        <v>1.394103473271542</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.450389382754955</v>
+        <v>1.695716123201317</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.528726790281765</v>
+        <v>1.364091401120026</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.327270618115619</v>
+        <v>1.532737194685671</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.371637834935512</v>
+        <v>1.632329343039525</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.677927393169</v>
+        <v>1.603216503227939</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.511475276792903</v>
+        <v>1.569488417208986</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.823226842293519</v>
+        <v>1.597342521677775</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.629935522841048</v>
+        <v>1.383346864469665</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.564409265510312</v>
+        <v>1.64589118147115</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.379168150315012</v>
+        <v>1.264461593303162</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.728454892395879</v>
+        <v>1.389557568378094</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.338632851726411</v>
+        <v>1.728845454751997</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.378799398466619</v>
+        <v>1.799208735185465</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.643397493710689</v>
+        <v>1.405779930208019</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.462066870135807</v>
+        <v>1.62236490155236</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.551826592226043</v>
+        <v>1.59199538229012</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.714401650445867</v>
+        <v>1.418230488660051</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.552187317301269</v>
+        <v>1.523825350916956</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.652994484379575</v>
+        <v>1.815939647221626</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.719369295741077</v>
+        <v>1.466819351827838</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.505216534338011</v>
+        <v>1.347082253595869</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.620095075011732</v>
+        <v>1.211662494689075</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.734612991307282</v>
+        <v>1.521646163120032</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.435514638958668</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.352449239382306</v>
+        <v>1.469435558303737</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.688036777571079</v>
+        <v>1.416181363664186</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.425624451336353</v>
+        <v>1.103655945073873</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.466583988631419</v>
+        <v>1.497098585593793</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.582619420198842</v>
+        <v>1.702931491083426</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.429833296574126</v>
+        <v>1.489953646763151</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.510075395990907</v>
+        <v>1.79968396587746</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.659257378429419</v>
+        <v>1.502756246076443</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.60468686919863</v>
+        <v>1.314192379639889</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.465321391716101</v>
+        <v>1.28073287009418</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.484696511695342</v>
+        <v>1.548767815521126</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.497900282163852</v>
+        <v>1.148204208900829</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.685745187008596</v>
+        <v>1.440071118011657</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.48760578813462</v>
+        <v>1.658573344886728</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.459994797080852</v>
+        <v>1.342614973364888</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.63073424934255</v>
+        <v>1.790607051791494</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.419523026938395</v>
+        <v>1.637293858088529</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.37778397678728</v>
+        <v>1.5242045013665</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.420997980488405</v>
+        <v>1.526016785770975</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.504034648192985</v>
+        <v>1.569592078089342</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.781208371976739</v>
+        <v>1.641325214308451</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.284845340836277</v>
+        <v>1.630094350726426</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.41961196199813</v>
+        <v>1.338221445977994</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.416994785273057</v>
+        <v>1.422499698568575</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.54603345364354</v>
+        <v>1.248865880721806</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.524854064625019</v>
+        <v>1.388869990397769</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.550839752093503</v>
+        <v>1.394013433161988</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.402098110748808</v>
+        <v>1.587259522735879</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.592010884682675</v>
+        <v>1.590502041836179</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.565643925858711</v>
+        <v>1.562527501218779</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.538583959439484</v>
+        <v>1.345376729982388</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.343819568412989</v>
+        <v>1.726677725357725</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.489994377912758</v>
+        <v>1.650170663055889</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.570542236665034</v>
+        <v>1.337231554986632</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.388226924479106</v>
+        <v>1.659016901654474</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.355709285543822</v>
+        <v>1.50350765005234</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.357026635573847</v>
+        <v>1.433400617007145</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.515318159096236</v>
+        <v>1.602821054816161</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.249686946494775</v>
+        <v>1.443906064932132</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.641144572862162</v>
+        <v>1.609586139595711</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.263704072212009</v>
+        <v>1.300805280108317</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.281094875166176</v>
+        <v>1.392715833640827</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.636096171492289</v>
+        <v>1.865984916729406</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.628648173035804</v>
+        <v>1.627068903991542</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.356393199455116</v>
+        <v>1.524878732150635</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.651108496172808</v>
+        <v>1.671090846557692</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.414407131747841</v>
+        <v>1.378556970506376</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.306287969129648</v>
+        <v>1.517727820504752</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.532087254759874</v>
+        <v>1.500722962279417</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.47251116320781</v>
+        <v>1.461533888300552</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.468625991994006</v>
+        <v>1.398974716806158</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.287528441764501</v>
+        <v>1.733870327085935</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.695129298518695</v>
+        <v>1.237246682475223</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.72968982904225</v>
+        <v>1.573819224983983</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.399491977159651</v>
+        <v>1.633206093052375</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.568380806102438</v>
+        <v>1.549732970083685</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.421204369834297</v>
+        <v>1.434138779432963</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.670483285093211</v>
+        <v>1.661866430020198</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.60153253746577</v>
+        <v>1.436621156177408</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.514666385090568</v>
+        <v>1.613350053908106</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.550350478755569</v>
+        <v>1.549031235535013</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.610163961476421</v>
+        <v>1.304577230691818</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.168272768679528</v>
+        <v>1.345687405139312</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.650749994201452</v>
+        <v>1.535501787204812</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.612644388218773</v>
+        <v>1.503594955715993</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.453437904066069</v>
+        <v>1.422872051935324</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.343477903186417</v>
+        <v>1.504006738881593</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.426228711576128</v>
+        <v>1.607764067060021</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.434062795165759</v>
+        <v>1.36425188370934</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.423729649451349</v>
+        <v>1.624322393349964</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.518552944247025</v>
+        <v>1.384660578075926</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.619425691923227</v>
+        <v>1.670110613685901</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.523021269246175</v>
+        <v>1.374746188816722</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.550993258924424</v>
+        <v>1.355184095182635</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.571605792526892</v>
+        <v>1.702720040203409</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.759473189898772</v>
+        <v>1.370443654339824</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.523624907444439</v>
+        <v>1.576637940254438</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.387208114669046</v>
+        <v>1.598866311596685</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.538272117238306</v>
+        <v>1.611907723545659</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.264679969571525</v>
+        <v>1.593551277521063</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.446172229924191</v>
+        <v>1.530373442699117</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.681569145710015</v>
+        <v>1.546439776671676</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.608643585243924</v>
+        <v>1.649529740299533</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.466780422722594</v>
+        <v>1.477450739281492</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.528606388058636</v>
+        <v>1.572189159430913</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.551578404772133</v>
+        <v>1.424425065057385</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.605554068591719</v>
+        <v>1.769458332859955</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.332664540648647</v>
+        <v>1.391609189470442</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.578975692073518</v>
+        <v>1.362635480478781</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.47124312680883</v>
+        <v>1.470513102456269</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.019285198905774</v>
+        <v>1.504960030038512</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.392399963981736</v>
+        <v>1.582678175252274</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.503746340946874</v>
+        <v>1.271437729498444</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.534356003932912</v>
+        <v>1.479380124745873</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.408044973622929</v>
+        <v>1.586312197359258</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.775693324126441</v>
+        <v>1.513094416822222</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.454894712010495</v>
+        <v>1.490185145079945</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.495626741839575</v>
+        <v>1.581006615105705</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.551789730806015</v>
+        <v>1.272161937874227</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.344104846051586</v>
+        <v>1.559734393902818</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.2671698308063</v>
+        <v>1.261089995760488</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.53558393322444</v>
+        <v>1.416381619275142</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.575732531485405</v>
+        <v>1.659689165789948</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.751141735520362</v>
+        <v>1.614754019988277</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.32321400300555</v>
+        <v>1.421130752316556</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.744099664181241</v>
+        <v>1.590820000921235</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.824307108098594</v>
+        <v>1.232595817987776</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.640834534158875</v>
+        <v>1.477408850664507</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.41938797018849</v>
+        <v>1.418128109409806</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.482140718865461</v>
+        <v>1.463842551407727</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.530424592713791</v>
+        <v>1.801065631437793</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.316818206828167</v>
+        <v>1.385737612112883</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.607499229571182</v>
+        <v>1.641447174395973</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/10_localizer.xlsx
+++ b/sequences/10_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>flower/flower084.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.743107685282627</v>
+        <v>1.338572975593954</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.406953662017011</v>
+        <v>1.495753916647087</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.276656943066742</v>
+        <v>1.67394766348653</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.896547859237462</v>
+        <v>1.532293234337886</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.240440652369085</v>
+        <v>1.330922707132051</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.541033331162841</v>
+        <v>1.555844362348153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.375140295226191</v>
+        <v>1.564320370542045</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.45135131624125</v>
+        <v>1.524527762905911</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.436531147070774</v>
+        <v>1.370956849687268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.651271679612308</v>
+        <v>1.412059532195467</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.51893941172079</v>
+        <v>1.675810777889165</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.493020425238217</v>
+        <v>1.385470242177817</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.472056225116378</v>
+        <v>1.597506979531957</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.562379674929951</v>
+        <v>1.419666792065571</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.359219036766891</v>
+        <v>1.455503454352292</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.693641472159219</v>
+        <v>1.546322425844465</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.754826814652481</v>
+        <v>1.356544965018768</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.556476616487306</v>
+        <v>1.865082213069334</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.169111137510457</v>
+        <v>1.546106387341206</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.457571425712675</v>
+        <v>1.485083814439432</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.722891662521317</v>
+        <v>1.476051486563866</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.714335025474486</v>
+        <v>1.666356379431233</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.283728186898556</v>
+        <v>1.237109345701194</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.354042532749752</v>
+        <v>1.655669784595246</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.372488341046332</v>
+        <v>1.477811983245727</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.86617985896606</v>
+        <v>1.477147615031389</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.494923818761508</v>
+        <v>1.554664256631654</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.490720230789289</v>
+        <v>1.573817396652414</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.586856761176852</v>
+        <v>1.455031139134484</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.733681410967068</v>
+        <v>1.56996457102319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.45442684215474</v>
+        <v>1.44560015046955</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.366820158658888</v>
+        <v>1.639587284718887</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.353107058158789</v>
+        <v>1.390990986580689</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.543386178840486</v>
+        <v>1.541589496838466</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.407736846623151</v>
+        <v>1.427900381859409</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.286246301048963</v>
+        <v>1.442006284543132</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.518306374977341</v>
+        <v>1.387395432130342</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.563614062274422</v>
+        <v>1.547402803647645</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.365315878771082</v>
+        <v>1.361785812868166</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.500603798551984</v>
+        <v>1.423382710126591</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.605899044303206</v>
+        <v>1.492016618611901</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.665633176376573</v>
+        <v>1.251990637390937</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.506712130506546</v>
+        <v>1.716010258820357</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.568223666946217</v>
+        <v>1.492222834153682</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.365847089067686</v>
+        <v>1.577424851546844</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.515102754060327</v>
+        <v>1.537494909867785</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.339389560050244</v>
+        <v>1.419012743856766</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.60021289106731</v>
+        <v>1.5485329477916</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.339264716509495</v>
+        <v>1.637310373440478</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.631944098865609</v>
+        <v>1.31321833479244</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.533491192249249</v>
+        <v>1.478399734287397</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.464700352400538</v>
+        <v>1.743001916311548</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.459452925927981</v>
+        <v>1.399158579463281</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.689030031175772</v>
+        <v>1.555075978055851</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.366909404571437</v>
+        <v>1.485957724149459</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.399662201944043</v>
+        <v>1.620917570848728</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.333953985276446</v>
+        <v>1.798584557861986</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.511398274706581</v>
+        <v>1.436740182483831</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.699617386513868</v>
+        <v>1.521063351020841</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.804116316548471</v>
+        <v>1.647589533915721</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.402647966507693</v>
+        <v>1.584004031293656</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.499673887711654</v>
+        <v>1.555541455227615</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.426320225789551</v>
+        <v>1.646824464928733</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.558125274879504</v>
+        <v>1.548255725625411</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.45763315860363</v>
+        <v>1.514307903508755</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.63509848926044</v>
+        <v>1.637447488016245</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1.42759237514098</v>
+        <v>1.33847818085788</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.456709808124088</v>
+        <v>1.765437252579071</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.524743769839481</v>
+        <v>1.246071461482477</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.662412751625909</v>
+        <v>1.330265552839153</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.544495779397861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.388266046176928</v>
+        <v>1.405519677993593</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.464096429054107</v>
+        <v>1.444598625201385</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.23322163051437</v>
+        <v>1.159927586785021</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.568286876023778</v>
+        <v>1.310858326784755</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.213732987398189</v>
+        <v>1.55295810717289</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.545688377339674</v>
+        <v>1.469149932206059</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.293237273154659</v>
+        <v>1.50884965915781</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.545052449395526</v>
+        <v>1.853957378826908</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.65904836292554</v>
+        <v>1.443788464538539</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.521522825520265</v>
+        <v>1.456116067236963</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.504578175840339</v>
+        <v>1.489103986254419</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.715647202613476</v>
+        <v>1.540412598017811</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.503472653786239</v>
+        <v>1.50641070360183</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.623145212672473</v>
+        <v>1.591091605614758</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.397113058206824</v>
+        <v>1.456746034801113</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.627000144074481</v>
+        <v>1.461628062054929</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.454780725773187</v>
+        <v>1.630685986179679</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.395243422074384</v>
+        <v>1.568734658113722</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.399585520072364</v>
+        <v>1.218817169293605</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.470642627556078</v>
+        <v>1.423951546662553</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.256163152828211</v>
+        <v>1.434738947974404</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.552215122638231</v>
+        <v>1.670340518234242</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.40760322155772</v>
+        <v>1.172484334828497</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.40396449397113</v>
+        <v>1.688287304775821</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.326920381429671</v>
+        <v>1.504442787062718</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.607033232000634</v>
+        <v>1.35093560933255</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.267909697448653</v>
+        <v>1.485845802659885</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.613764021850529</v>
+        <v>1.354316973031769</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.330497304648311</v>
+        <v>1.512828082131577</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.389847872428263</v>
+        <v>1.517488481611142</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.711407799329746</v>
+        <v>1.614226433592399</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.491109173301992</v>
+        <v>1.442032382941134</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.697993655423244</v>
+        <v>1.559919348821</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.727095406729109</v>
+        <v>1.658344531645982</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.442951418403252</v>
+        <v>1.69540968872541</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.677826635990842</v>
+        <v>1.638522159615289</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.656145796544485</v>
+        <v>1.346539427295844</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.533293153459575</v>
+        <v>1.582771702677998</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.321715333837581</v>
+        <v>1.649431667897221</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.468495905779551</v>
+        <v>1.50133405660619</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.650997651712996</v>
+        <v>1.873318852265205</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.500015903901487</v>
+        <v>1.557148388398252</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.397602213936553</v>
+        <v>1.622994447946135</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.187752545328449</v>
+        <v>1.330730005203173</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.467449103504058</v>
+        <v>1.304897396116993</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.261545155776331</v>
+        <v>1.390858483779701</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.449195031398352</v>
+        <v>1.554741386211408</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.394103473271542</v>
+        <v>1.508011868863905</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.695716123201317</v>
+        <v>1.58872154606114</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.364091401120026</v>
+        <v>1.356505698895529</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.532737194685671</v>
+        <v>1.551682218825805</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.632329343039525</v>
+        <v>1.469371392658618</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.603216503227939</v>
+        <v>1.687699001036259</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.569488417208986</v>
+        <v>1.296396754630046</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.597342521677775</v>
+        <v>1.321684384475989</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.383346864469665</v>
+        <v>1.726065226036325</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.64589118147115</v>
+        <v>1.550897836799516</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.264461593303162</v>
+        <v>1.576395544171364</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.389557568378094</v>
+        <v>1.370666975397147</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.728845454751997</v>
+        <v>1.427488838311132</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.799208735185465</v>
+        <v>1.402293436784722</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.405779930208019</v>
+        <v>1.509929736782658</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.62236490155236</v>
+        <v>1.555803037175805</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.59199538229012</v>
+        <v>1.597029179666742</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.418230488660051</v>
+        <v>1.665461810637037</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.523825350916956</v>
+        <v>1.488636864034451</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.815939647221626</v>
+        <v>1.35589902754116</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.466819351827838</v>
+        <v>1.571744778923393</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.347082253595869</v>
+        <v>1.334391491207061</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.211662494689075</v>
+        <v>1.484492213208506</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.521646163120032</v>
+        <v>1.614164692859012</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>1.583372679610276</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.469435558303737</v>
+        <v>1.75130934055387</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.416181363664186</v>
+        <v>1.290536535625666</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.103655945073873</v>
+        <v>1.651675989555739</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.497098585593793</v>
+        <v>1.401646266839194</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.702931491083426</v>
+        <v>1.447156611291492</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.489953646763151</v>
+        <v>1.493555144368784</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.79968396587746</v>
+        <v>1.408677987913278</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.502756246076443</v>
+        <v>1.458618862040028</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.314192379639889</v>
+        <v>1.313246074439279</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.28073287009418</v>
+        <v>1.39971508893692</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.548767815521126</v>
+        <v>1.431334028388419</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.148204208900829</v>
+        <v>1.465201166205512</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.440071118011657</v>
+        <v>1.473000199662788</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.658573344886728</v>
+        <v>1.238744584061062</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.342614973364888</v>
+        <v>1.44870680654019</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.790607051791494</v>
+        <v>1.511556916407956</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.637293858088529</v>
+        <v>1.447143190156154</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.5242045013665</v>
+        <v>1.505663553537744</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.526016785770975</v>
+        <v>1.591684105050023</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.569592078089342</v>
+        <v>1.636965795815744</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.641325214308451</v>
+        <v>1.530465053265113</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.630094350726426</v>
+        <v>1.578424208921348</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.338221445977994</v>
+        <v>1.617574866145608</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.422499698568575</v>
+        <v>1.406638675337399</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.248865880721806</v>
+        <v>1.550786172092149</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.388869990397769</v>
+        <v>1.354571293629286</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.394013433161988</v>
+        <v>1.29496696352852</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.587259522735879</v>
+        <v>1.688917701701022</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.590502041836179</v>
+        <v>1.18977538874437</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.562527501218779</v>
+        <v>1.624407103215767</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.345376729982388</v>
+        <v>1.461667525408748</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.726677725357725</v>
+        <v>1.667319579623899</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.650170663055889</v>
+        <v>1.667403211493754</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.337231554986632</v>
+        <v>1.403622419783724</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.659016901654474</v>
+        <v>1.260868385718632</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.50350765005234</v>
+        <v>1.50199341376618</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.433400617007145</v>
+        <v>1.512386864912971</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.602821054816161</v>
+        <v>1.446457039661731</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.443906064932132</v>
+        <v>1.525742709100712</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.609586139595711</v>
+        <v>1.593943336441122</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.300805280108317</v>
+        <v>1.335927194240037</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.392715833640827</v>
+        <v>1.660374426356177</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.865984916729406</v>
+        <v>1.380828858449887</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.627068903991542</v>
+        <v>1.356692430980165</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.524878732150635</v>
+        <v>1.416495122529525</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.671090846557692</v>
+        <v>1.574785303861225</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.378556970506376</v>
+        <v>1.383325604135127</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.517727820504752</v>
+        <v>1.278091525995102</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.500722962279417</v>
+        <v>1.449083194690888</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.461533888300552</v>
+        <v>1.72711301743965</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.398974716806158</v>
+        <v>1.592380734149116</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.733870327085935</v>
+        <v>1.498310877171639</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.237246682475223</v>
+        <v>1.505086559055033</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.573819224983983</v>
+        <v>1.657208636525781</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.633206093052375</v>
+        <v>1.755533310020153</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.549732970083685</v>
+        <v>1.443699904464409</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.434138779432963</v>
+        <v>1.614836650132669</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.661866430020198</v>
+        <v>1.383949901633129</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.436621156177408</v>
+        <v>1.712838824090755</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.613350053908106</v>
+        <v>1.434639918159162</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.549031235535013</v>
+        <v>1.575009685745848</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.304577230691818</v>
+        <v>1.586489282996165</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.345687405139312</v>
+        <v>1.46512366017339</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.535501787204812</v>
+        <v>1.556350568880611</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.503594955715993</v>
+        <v>1.643300779477716</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.422872051935324</v>
+        <v>1.56025416140721</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.504006738881593</v>
+        <v>1.510843241688516</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.607764067060021</v>
+        <v>1.649586831376873</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.36425188370934</v>
+        <v>1.577114306235007</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.624322393349964</v>
+        <v>1.389084895236428</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.384660578075926</v>
+        <v>1.450839084304838</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.670110613685901</v>
+        <v>1.482376425974671</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.374746188816722</v>
+        <v>1.410478499085657</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.355184095182635</v>
+        <v>1.452135639929655</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.702720040203409</v>
+        <v>1.453208988170839</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.370443654339824</v>
+        <v>1.4406628144083</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.576637940254438</v>
+        <v>1.431249250490987</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.598866311596685</v>
+        <v>1.502566921021373</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.611907723545659</v>
+        <v>1.415632066794732</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.593551277521063</v>
+        <v>1.718461149517822</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.530373442699117</v>
+        <v>1.711218046795012</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.546439776671676</v>
+        <v>1.551071155500773</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.649529740299533</v>
+        <v>1.404962096331141</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.477450739281492</v>
+        <v>1.524149277403676</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>1.572189159430913</v>
+        <v>1.34357042923474</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.424425065057385</v>
+        <v>1.133485387220405</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.769458332859955</v>
+        <v>1.647590386501966</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.391609189470442</v>
+        <v>1.628884704646803</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.362635480478781</v>
+        <v>1.560932501074486</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.470513102456269</v>
+        <v>1.414389960585018</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.504960030038512</v>
+        <v>1.631044951570191</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.582678175252274</v>
+        <v>1.65249332502196</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.271437729498444</v>
+        <v>1.537120196715194</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.479380124745873</v>
+        <v>1.445450642865135</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.586312197359258</v>
+        <v>1.636884414888486</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.513094416822222</v>
+        <v>1.658698495171702</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.490185145079945</v>
+        <v>1.38451934381587</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.581006615105705</v>
+        <v>1.113788312308447</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.272161937874227</v>
+        <v>1.47589025448531</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.559734393902818</v>
+        <v>1.518386032931364</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.261089995760488</v>
+        <v>1.648942619678885</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.416381619275142</v>
+        <v>1.320080692783832</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.659689165789948</v>
+        <v>1.559583220101537</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.614754019988277</v>
+        <v>1.601663704707893</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.421130752316556</v>
+        <v>1.320557397262353</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.590820000921235</v>
+        <v>1.486054359524969</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.232595817987776</v>
+        <v>1.576761818827348</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.477408850664507</v>
+        <v>1.235419353516318</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.418128109409806</v>
+        <v>1.205670532239208</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.463842551407727</v>
+        <v>1.429271643753013</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.801065631437793</v>
+        <v>1.22313671151685</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.385737612112883</v>
+        <v>1.30645950008669</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.641447174395973</v>
+        <v>1.573760325861596</v>
       </c>
     </row>
   </sheetData>
